--- a/MacOS_tests/SpeedUpGraph_searchdensity.xlsx
+++ b/MacOS_tests/SpeedUpGraph_searchdensity.xlsx
@@ -5,26 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissagithinji/Desktop/UCT/CompSci 2002S/Assignment1-Parallel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissagithinji/Desktop/UCT/CompSci 2002S/GTHMEL001-PCPA1/myrepo/MacOS_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FD64B9E-C930-6B45-AB1E-C60E385FE2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B06BE8F-35AF-8845-A21B-D56BAC258E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{444FE5E9-53B1-B945-BC53-7322FBCFCE01}"/>
+    <workbookView xWindow="10380" yWindow="500" windowWidth="15420" windowHeight="16480" xr2:uid="{444FE5E9-53B1-B945-BC53-7322FBCFCE01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$26</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$26</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$26</definedName>
-  </definedNames>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,10 +36,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -114,6 +103,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Speedup Graph Showing the Speedup For Different Search Density In The Parallel Solution Over Increasing Problem Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -127,12 +138,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -152,8 +160,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Search Density = 0.1</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -165,13 +176,37 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -354,8 +389,11 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Search Density = 0.3</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -367,13 +405,37 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -556,8 +618,11 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Search Density = 0.5</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -569,17 +634,59 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:name>Logarithmic Best Fit</c:name>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$26</c:f>
@@ -758,8 +865,11 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>Search Density = 0.7</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -771,13 +881,37 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -960,8 +1094,11 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>Search Density = 0.9</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -973,13 +1110,37 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent5"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1181,7 +1342,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1191,20 +1352,76 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Grid Size     (units^2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44426975451597966"/>
+              <c:y val="0.82831776507388633"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1215,10 +1432,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1236,6 +1450,7 @@
         <c:axId val="1447625791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1243,7 +1458,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1253,20 +1468,76 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.324009324009324E-3"/>
+              <c:y val="0.39262401574803152"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1277,10 +1548,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1319,10 +1587,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1343,7 +1608,848 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Speedup Graph Showing the Speedup Between The Highest and Lowest Search Densities In The Parallel Solution Over Increasing Problem Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Search Density = 0.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>446400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>590400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>754400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>938400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1142400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1366400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1610400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1874400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2158400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2462400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2786400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3130400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3494400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3878400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4282400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4706400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5150400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5614400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6098400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63636363636363602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90909090909090895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4347826086956501</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5652173913043399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4827586206896499</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4242424242424199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2820512820512802</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3953488372092999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3409090909090899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9615384615384599</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1923076923076898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDD1-A348-A454-D9E3F5A5DFF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Search Density = 0.9</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>446400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>590400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>754400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>938400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1142400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1366400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1610400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1874400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2158400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2462400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2786400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3130400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3494400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3878400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4282400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4706400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5150400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5614400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6098400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2173913043478199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4516129032258001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7288135593220302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1428571428571401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3614457831325302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5510204081632599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.60747663551401</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3664122137404502</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.86713286713286</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4940476190476102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6033519553072599</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8527918781725798</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5872340425531899</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7224489795918299</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0684410646387801</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2040816326530601</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.14012738853503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FDD1-A348-A454-D9E3F5A5DFF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1511775791"/>
+        <c:axId val="1447625791"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1511775791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Grid Size     (units^2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44262910798122063"/>
+              <c:y val="0.87524552219434104"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1447625791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1447625791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.8441345365053324E-3"/>
+              <c:y val="0.41664000984251975"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1511775791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1410,36 +2516,70 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1452,7 +2592,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1460,7 +2600,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1468,17 +2608,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -1487,9 +2624,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1512,35 +2648,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1552,18 +2688,19 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -1572,10 +2709,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1591,21 +2728,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1615,23 +2747,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1640,17 +2771,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1659,14 +2790,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1678,26 +2808,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1711,17 +2835,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1730,17 +2853,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1749,17 +2872,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1768,27 +2890,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1796,11 +2915,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1808,17 +2935,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1827,12 +2954,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1841,14 +2965,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1857,10 +2980,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -1869,20 +2989,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1891,20 +3010,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1914,14 +3029,487 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1930,16 +3518,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1964,7 +3552,1087 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3785C3-1E77-2B40-A24F-25C7B8535000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4">
+            <v>2400</v>
+          </cell>
+          <cell r="B4">
+            <v>1</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>2</v>
+          </cell>
+          <cell r="G4">
+            <v>2</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+          <cell r="I4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>0.5</v>
+          </cell>
+          <cell r="K4">
+            <v>0</v>
+          </cell>
+          <cell r="L4">
+            <v>0</v>
+          </cell>
+          <cell r="M4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>26400</v>
+          </cell>
+          <cell r="B5">
+            <v>0.4</v>
+          </cell>
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+          <cell r="F5">
+            <v>1</v>
+          </cell>
+          <cell r="G5">
+            <v>1</v>
+          </cell>
+          <cell r="H5">
+            <v>0.5</v>
+          </cell>
+          <cell r="I5">
+            <v>0</v>
+          </cell>
+          <cell r="J5">
+            <v>0.66666666666666596</v>
+          </cell>
+          <cell r="K5">
+            <v>0</v>
+          </cell>
+          <cell r="L5">
+            <v>1</v>
+          </cell>
+          <cell r="M5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>70400</v>
+          </cell>
+          <cell r="B6">
+            <v>1.2</v>
+          </cell>
+          <cell r="C6">
+            <v>0.75</v>
+          </cell>
+          <cell r="D6">
+            <v>0.75</v>
+          </cell>
+          <cell r="E6">
+            <v>0.75</v>
+          </cell>
+          <cell r="F6">
+            <v>0.8</v>
+          </cell>
+          <cell r="G6">
+            <v>0.8</v>
+          </cell>
+          <cell r="H6">
+            <v>0.75</v>
+          </cell>
+          <cell r="I6">
+            <v>0.75</v>
+          </cell>
+          <cell r="J6">
+            <v>1.5</v>
+          </cell>
+          <cell r="K6">
+            <v>1</v>
+          </cell>
+          <cell r="L6">
+            <v>1</v>
+          </cell>
+          <cell r="M6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>134400</v>
+          </cell>
+          <cell r="B7">
+            <v>0.71428571428571397</v>
+          </cell>
+          <cell r="C7">
+            <v>1</v>
+          </cell>
+          <cell r="D7">
+            <v>1.1666666666666601</v>
+          </cell>
+          <cell r="E7">
+            <v>0.8</v>
+          </cell>
+          <cell r="F7">
+            <v>0.875</v>
+          </cell>
+          <cell r="G7">
+            <v>0.875</v>
+          </cell>
+          <cell r="H7">
+            <v>1.3333333333333299</v>
+          </cell>
+          <cell r="I7">
+            <v>0.66666666666666596</v>
+          </cell>
+          <cell r="J7">
+            <v>0.75</v>
+          </cell>
+          <cell r="K7">
+            <v>1.1428571428571399</v>
+          </cell>
+          <cell r="L7">
+            <v>1</v>
+          </cell>
+          <cell r="M7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>218400</v>
+          </cell>
+          <cell r="B8">
+            <v>1</v>
+          </cell>
+          <cell r="C8">
+            <v>1.125</v>
+          </cell>
+          <cell r="D8">
+            <v>1.3333333333333299</v>
+          </cell>
+          <cell r="E8">
+            <v>1</v>
+          </cell>
+          <cell r="F8">
+            <v>0.90909090909090895</v>
+          </cell>
+          <cell r="G8">
+            <v>0.90909090909090895</v>
+          </cell>
+          <cell r="H8">
+            <v>1</v>
+          </cell>
+          <cell r="I8">
+            <v>1.55555555555555</v>
+          </cell>
+          <cell r="J8">
+            <v>0.57142857142857095</v>
+          </cell>
+          <cell r="K8">
+            <v>0.46428571428571402</v>
+          </cell>
+          <cell r="L8">
+            <v>1.27272727272727</v>
+          </cell>
+          <cell r="M8">
+            <v>0.81818181818181801</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>322400</v>
+          </cell>
+          <cell r="B9">
+            <v>0.85714285714285698</v>
+          </cell>
+          <cell r="C9">
+            <v>1.4</v>
+          </cell>
+          <cell r="D9">
+            <v>0.92307692307692302</v>
+          </cell>
+          <cell r="E9">
+            <v>1.5</v>
+          </cell>
+          <cell r="F9">
+            <v>1.15384615384615</v>
+          </cell>
+          <cell r="G9">
+            <v>1.15384615384615</v>
+          </cell>
+          <cell r="H9">
+            <v>1.25</v>
+          </cell>
+          <cell r="I9">
+            <v>0.6875</v>
+          </cell>
+          <cell r="J9">
+            <v>0.93333333333333302</v>
+          </cell>
+          <cell r="K9">
+            <v>1.1428571428571399</v>
+          </cell>
+          <cell r="L9">
+            <v>1</v>
+          </cell>
+          <cell r="M9">
+            <v>1.38888888888888</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>446400</v>
+          </cell>
+          <cell r="B10">
+            <v>1.8</v>
+          </cell>
+          <cell r="C10">
+            <v>1.1578947368421</v>
+          </cell>
+          <cell r="D10">
+            <v>2.25</v>
+          </cell>
+          <cell r="E10">
+            <v>1.1176470588235199</v>
+          </cell>
+          <cell r="F10">
+            <v>1.8235294117647001</v>
+          </cell>
+          <cell r="G10">
+            <v>1.8235294117647001</v>
+          </cell>
+          <cell r="H10">
+            <v>1.1875</v>
+          </cell>
+          <cell r="I10">
+            <v>2.2666666666666599</v>
+          </cell>
+          <cell r="J10">
+            <v>1.26315789473684</v>
+          </cell>
+          <cell r="K10">
+            <v>1.1666666666666601</v>
+          </cell>
+          <cell r="L10">
+            <v>1.1578947368421</v>
+          </cell>
+          <cell r="M10">
+            <v>1.1176470588235199</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>590400</v>
+          </cell>
+          <cell r="B11">
+            <v>1.8095238095238</v>
+          </cell>
+          <cell r="C11">
+            <v>1.43243243243243</v>
+          </cell>
+          <cell r="D11">
+            <v>1.28571428571428</v>
+          </cell>
+          <cell r="E11">
+            <v>2.4285714285714199</v>
+          </cell>
+          <cell r="F11">
+            <v>1.3043478260869501</v>
+          </cell>
+          <cell r="G11">
+            <v>1.3043478260869501</v>
+          </cell>
+          <cell r="H11">
+            <v>1.72727272727272</v>
+          </cell>
+          <cell r="I11">
+            <v>1.4761904761904701</v>
+          </cell>
+          <cell r="J11">
+            <v>1.9523809523809501</v>
+          </cell>
+          <cell r="K11">
+            <v>1.7</v>
+          </cell>
+          <cell r="L11">
+            <v>1.37037037037037</v>
+          </cell>
+          <cell r="M11">
+            <v>1.6666666666666601</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>754400</v>
+          </cell>
+          <cell r="B12">
+            <v>1.40625</v>
+          </cell>
+          <cell r="C12">
+            <v>2.55555555555555</v>
+          </cell>
+          <cell r="D12">
+            <v>2.3333333333333299</v>
+          </cell>
+          <cell r="E12">
+            <v>1.9629629629629599</v>
+          </cell>
+          <cell r="F12">
+            <v>1.0416666666666601</v>
+          </cell>
+          <cell r="G12">
+            <v>1.0416666666666601</v>
+          </cell>
+          <cell r="H12">
+            <v>1.7931034482758601</v>
+          </cell>
+          <cell r="I12">
+            <v>2.07407407407407</v>
+          </cell>
+          <cell r="J12">
+            <v>2.04</v>
+          </cell>
+          <cell r="K12">
+            <v>1.9629629629629599</v>
+          </cell>
+          <cell r="L12">
+            <v>2.08</v>
+          </cell>
+          <cell r="M12">
+            <v>2.13793103448275</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>938400</v>
+          </cell>
+          <cell r="B13">
+            <v>1.6756756756756701</v>
+          </cell>
+          <cell r="C13">
+            <v>2.78125</v>
+          </cell>
+          <cell r="D13">
+            <v>2.2702702702702702</v>
+          </cell>
+          <cell r="E13">
+            <v>2.02857142857142</v>
+          </cell>
+          <cell r="F13">
+            <v>1.51428571428571</v>
+          </cell>
+          <cell r="G13">
+            <v>1.51428571428571</v>
+          </cell>
+          <cell r="H13">
+            <v>1.8918918918918901</v>
+          </cell>
+          <cell r="I13">
+            <v>2.4705882352941102</v>
+          </cell>
+          <cell r="J13">
+            <v>1.6060606060606</v>
+          </cell>
+          <cell r="K13">
+            <v>3.1212121212121202</v>
+          </cell>
+          <cell r="L13">
+            <v>2.6969696969696901</v>
+          </cell>
+          <cell r="M13">
+            <v>1.53125</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>1142400</v>
+          </cell>
+          <cell r="B14">
+            <v>1.51162790697674</v>
+          </cell>
+          <cell r="C14">
+            <v>1.8</v>
+          </cell>
+          <cell r="D14">
+            <v>2.2564102564102502</v>
+          </cell>
+          <cell r="E14">
+            <v>1.88095238095238</v>
+          </cell>
+          <cell r="F14">
+            <v>1.4090909090909001</v>
+          </cell>
+          <cell r="G14">
+            <v>1.4090909090909001</v>
+          </cell>
+          <cell r="H14">
+            <v>2</v>
+          </cell>
+          <cell r="I14">
+            <v>2.2105263157894699</v>
+          </cell>
+          <cell r="J14">
+            <v>2.3953488372092999</v>
+          </cell>
+          <cell r="K14">
+            <v>2.7441860465116199</v>
+          </cell>
+          <cell r="L14">
+            <v>2.1282051282051202</v>
+          </cell>
+          <cell r="M14">
+            <v>2.5945945945945899</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>1366400</v>
+          </cell>
+          <cell r="B15">
+            <v>1.8541666666666601</v>
+          </cell>
+          <cell r="C15">
+            <v>1.91489361702127</v>
+          </cell>
+          <cell r="D15">
+            <v>2.6037735849056598</v>
+          </cell>
+          <cell r="E15">
+            <v>1.86</v>
+          </cell>
+          <cell r="F15">
+            <v>2.16</v>
+          </cell>
+          <cell r="G15">
+            <v>2.16</v>
+          </cell>
+          <cell r="H15">
+            <v>1.9607843137254899</v>
+          </cell>
+          <cell r="I15">
+            <v>2.3333333333333299</v>
+          </cell>
+          <cell r="J15">
+            <v>2.2692307692307598</v>
+          </cell>
+          <cell r="K15">
+            <v>2.4081632653061198</v>
+          </cell>
+          <cell r="L15">
+            <v>2.0943396226414999</v>
+          </cell>
+          <cell r="M15">
+            <v>2.55555555555555</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>1610400</v>
+          </cell>
+          <cell r="B16">
+            <v>2.3584905660377302</v>
+          </cell>
+          <cell r="C16">
+            <v>2.0178571428571401</v>
+          </cell>
+          <cell r="D16">
+            <v>2.5254237288135499</v>
+          </cell>
+          <cell r="E16">
+            <v>2.2413793103448199</v>
+          </cell>
+          <cell r="F16">
+            <v>2.3090909090909002</v>
+          </cell>
+          <cell r="G16">
+            <v>2.3090909090909002</v>
+          </cell>
+          <cell r="H16">
+            <v>1.9322033898305</v>
+          </cell>
+          <cell r="I16">
+            <v>2.6271186440677901</v>
+          </cell>
+          <cell r="J16">
+            <v>1.7230769230769201</v>
+          </cell>
+          <cell r="K16">
+            <v>2.08196721311475</v>
+          </cell>
+          <cell r="L16">
+            <v>2.73684210526315</v>
+          </cell>
+          <cell r="M16">
+            <v>2.8166666666666602</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>1874400</v>
+          </cell>
+          <cell r="B17">
+            <v>2.4444444444444402</v>
+          </cell>
+          <cell r="C17">
+            <v>2.6307692307692299</v>
+          </cell>
+          <cell r="D17">
+            <v>2.1323529411764701</v>
+          </cell>
+          <cell r="E17">
+            <v>2</v>
+          </cell>
+          <cell r="F17">
+            <v>2.88888888888888</v>
+          </cell>
+          <cell r="G17">
+            <v>2.88888888888888</v>
+          </cell>
+          <cell r="H17">
+            <v>2.5322580645161201</v>
+          </cell>
+          <cell r="I17">
+            <v>2.375</v>
+          </cell>
+          <cell r="J17">
+            <v>2.6615384615384601</v>
+          </cell>
+          <cell r="K17">
+            <v>2.8333333333333299</v>
+          </cell>
+          <cell r="L17">
+            <v>2.5147058823529398</v>
+          </cell>
+          <cell r="M17">
+            <v>2.6268656716417902</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>2158400</v>
+          </cell>
+          <cell r="B18">
+            <v>2.23684210526315</v>
+          </cell>
+          <cell r="C18">
+            <v>2.1733333333333298</v>
+          </cell>
+          <cell r="D18">
+            <v>2.38888888888888</v>
+          </cell>
+          <cell r="E18">
+            <v>2.8928571428571401</v>
+          </cell>
+          <cell r="F18">
+            <v>2.53521126760563</v>
+          </cell>
+          <cell r="G18">
+            <v>2.53521126760563</v>
+          </cell>
+          <cell r="H18">
+            <v>2.0133333333333301</v>
+          </cell>
+          <cell r="I18">
+            <v>2.5657894736842102</v>
+          </cell>
+          <cell r="J18">
+            <v>2.8028169014084501</v>
+          </cell>
+          <cell r="K18">
+            <v>3.2191780821917799</v>
+          </cell>
+          <cell r="L18">
+            <v>2.9090909090908998</v>
+          </cell>
+          <cell r="M18">
+            <v>2.625</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>2462400</v>
+          </cell>
+          <cell r="B19">
+            <v>2.375</v>
+          </cell>
+          <cell r="C19">
+            <v>2.9024390243902398</v>
+          </cell>
+          <cell r="D19">
+            <v>2.8</v>
+          </cell>
+          <cell r="E19">
+            <v>2.0638297872340399</v>
+          </cell>
+          <cell r="F19">
+            <v>2.8641975308641898</v>
+          </cell>
+          <cell r="G19">
+            <v>2.8641975308641898</v>
+          </cell>
+          <cell r="H19">
+            <v>2.3820224719101102</v>
+          </cell>
+          <cell r="I19">
+            <v>2.84883720930232</v>
+          </cell>
+          <cell r="J19">
+            <v>2.88095238095238</v>
+          </cell>
+          <cell r="K19">
+            <v>3.0941176470588201</v>
+          </cell>
+          <cell r="L19">
+            <v>3.1686746987951802</v>
+          </cell>
+          <cell r="M19">
+            <v>2.70588235294117</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>2786400</v>
+          </cell>
+          <cell r="B20">
+            <v>2.4</v>
+          </cell>
+          <cell r="C20">
+            <v>2.71428571428571</v>
+          </cell>
+          <cell r="D20">
+            <v>2.3333333333333299</v>
+          </cell>
+          <cell r="E20">
+            <v>2.40707964601769</v>
+          </cell>
+          <cell r="F20">
+            <v>2.6555555555555501</v>
+          </cell>
+          <cell r="G20">
+            <v>2.6555555555555501</v>
+          </cell>
+          <cell r="H20">
+            <v>2.85263157894736</v>
+          </cell>
+          <cell r="I20">
+            <v>2.5384615384615299</v>
+          </cell>
+          <cell r="J20">
+            <v>2.7127659574468002</v>
+          </cell>
+          <cell r="K20">
+            <v>3.2857142857142798</v>
+          </cell>
+          <cell r="L20">
+            <v>2.95</v>
+          </cell>
+          <cell r="M20">
+            <v>2.68</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>3130400</v>
+          </cell>
+          <cell r="B21">
+            <v>2.3738317757009302</v>
+          </cell>
+          <cell r="C21">
+            <v>3.0476190476190399</v>
+          </cell>
+          <cell r="D21">
+            <v>3.04901960784313</v>
+          </cell>
+          <cell r="E21">
+            <v>2.3394495412844001</v>
+          </cell>
+          <cell r="F21">
+            <v>2.55555555555555</v>
+          </cell>
+          <cell r="G21">
+            <v>2.55555555555555</v>
+          </cell>
+          <cell r="H21">
+            <v>2.42241379310344</v>
+          </cell>
+          <cell r="I21">
+            <v>2.9816513761467802</v>
+          </cell>
+          <cell r="J21">
+            <v>3.0263157894736801</v>
+          </cell>
+          <cell r="K21">
+            <v>2.7321428571428501</v>
+          </cell>
+          <cell r="L21">
+            <v>2.5288461538461502</v>
+          </cell>
+          <cell r="M21">
+            <v>2.4871794871794801</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>3494400</v>
+          </cell>
+          <cell r="B22">
+            <v>2.3852459016393399</v>
+          </cell>
+          <cell r="C22">
+            <v>3.07894736842105</v>
+          </cell>
+          <cell r="D22">
+            <v>2.8166666666666602</v>
+          </cell>
+          <cell r="E22">
+            <v>2.78632478632478</v>
+          </cell>
+          <cell r="F22">
+            <v>2.81196581196581</v>
+          </cell>
+          <cell r="G22">
+            <v>2.81196581196581</v>
+          </cell>
+          <cell r="H22">
+            <v>2.0495867768595</v>
+          </cell>
+          <cell r="I22">
+            <v>2.3206106870229002</v>
+          </cell>
+          <cell r="J22">
+            <v>2.9145299145299099</v>
+          </cell>
+          <cell r="K22">
+            <v>2.6160000000000001</v>
+          </cell>
+          <cell r="L22">
+            <v>2.8333333333333299</v>
+          </cell>
+          <cell r="M22">
+            <v>2.7478991596638598</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>3878400</v>
+          </cell>
+          <cell r="B23">
+            <v>2.6959459459459398</v>
+          </cell>
+          <cell r="C23">
+            <v>2.7862595419847298</v>
+          </cell>
+          <cell r="D23">
+            <v>2.8571428571428501</v>
+          </cell>
+          <cell r="E23">
+            <v>2.9624060150375899</v>
+          </cell>
+          <cell r="F23">
+            <v>2.46762589928057</v>
+          </cell>
+          <cell r="G23">
+            <v>2.46762589928057</v>
+          </cell>
+          <cell r="H23">
+            <v>2.6717557251908302</v>
+          </cell>
+          <cell r="I23">
+            <v>2.6785714285714199</v>
+          </cell>
+          <cell r="J23">
+            <v>2.87596899224806</v>
+          </cell>
+          <cell r="K23">
+            <v>2.8156028368794299</v>
+          </cell>
+          <cell r="L23">
+            <v>3.0307692307692302</v>
+          </cell>
+          <cell r="M23">
+            <v>2.9699248120300701</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>4282400</v>
+          </cell>
+          <cell r="B24">
+            <v>2.3913043478260798</v>
+          </cell>
+          <cell r="C24">
+            <v>2.48684210526315</v>
+          </cell>
+          <cell r="D24">
+            <v>3.1503267973856199</v>
+          </cell>
+          <cell r="E24">
+            <v>2.9793103448275802</v>
+          </cell>
+          <cell r="F24">
+            <v>2.66187050359712</v>
+          </cell>
+          <cell r="G24">
+            <v>2.66187050359712</v>
+          </cell>
+          <cell r="H24">
+            <v>2.9801324503311202</v>
+          </cell>
+          <cell r="I24">
+            <v>2.87074829931972</v>
+          </cell>
+          <cell r="J24">
+            <v>2.9310344827586201</v>
+          </cell>
+          <cell r="K24">
+            <v>3.4276315789473601</v>
+          </cell>
+          <cell r="L24">
+            <v>3.2466666666666599</v>
+          </cell>
+          <cell r="M24">
+            <v>2.9090909090908998</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>4706400</v>
+          </cell>
+          <cell r="B25">
+            <v>2.57317073170731</v>
+          </cell>
+          <cell r="C25">
+            <v>2.6100628930817602</v>
+          </cell>
+          <cell r="D25">
+            <v>2.6516129032258</v>
+          </cell>
+          <cell r="E25">
+            <v>2.8051948051947999</v>
+          </cell>
+          <cell r="F25">
+            <v>2.5590062111801202</v>
+          </cell>
+          <cell r="G25">
+            <v>2.5590062111801202</v>
+          </cell>
+          <cell r="H25">
+            <v>2.7962962962962901</v>
+          </cell>
+          <cell r="I25">
+            <v>2.0796460176991101</v>
+          </cell>
+          <cell r="J25">
+            <v>2.9461077844311299</v>
+          </cell>
+          <cell r="K25">
+            <v>3.2160493827160401</v>
+          </cell>
+          <cell r="L25">
+            <v>3.1257861635220099</v>
+          </cell>
+          <cell r="M25">
+            <v>2.9299363057324799</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>5150400</v>
+          </cell>
+          <cell r="B26">
+            <v>2.6182734299999999</v>
+          </cell>
+          <cell r="C26">
+            <v>2.6592178770949699</v>
+          </cell>
+          <cell r="D26">
+            <v>2.8735632183908</v>
+          </cell>
+          <cell r="E26">
+            <v>2.8232044198895001</v>
+          </cell>
+          <cell r="F26">
+            <v>3.0174418604651101</v>
+          </cell>
+          <cell r="G26">
+            <v>3.0174418604651101</v>
+          </cell>
+          <cell r="H26">
+            <v>2.8720930232558102</v>
+          </cell>
+          <cell r="I26">
+            <v>3.1279069767441801</v>
+          </cell>
+          <cell r="J26">
+            <v>3.0444444444444398</v>
+          </cell>
+          <cell r="K26">
+            <v>3.08988764044943</v>
+          </cell>
+          <cell r="L26">
+            <v>3.0326086956521698</v>
+          </cell>
+          <cell r="M26">
+            <v>2.8</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>5614400</v>
+          </cell>
+          <cell r="B27">
+            <v>2.91282051282051</v>
+          </cell>
+          <cell r="C27">
+            <v>2.8241758241758199</v>
+          </cell>
+          <cell r="D27">
+            <v>2.4974619289340101</v>
+          </cell>
+          <cell r="E27">
+            <v>2.86486486486486</v>
+          </cell>
+          <cell r="F27">
+            <v>3.1105263157894698</v>
+          </cell>
+          <cell r="G27">
+            <v>3.1105263157894698</v>
+          </cell>
+          <cell r="H27">
+            <v>2.8270270270270199</v>
+          </cell>
+          <cell r="I27">
+            <v>2.71428571428571</v>
+          </cell>
+          <cell r="J27">
+            <v>3.0102564102564102</v>
+          </cell>
+          <cell r="K27">
+            <v>3.2513368983957198</v>
+          </cell>
+          <cell r="L27">
+            <v>3.0196078431372499</v>
+          </cell>
+          <cell r="M27">
+            <v>3.0242718446601899</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>6098400</v>
+          </cell>
+          <cell r="B28">
+            <v>2.6949152542372801</v>
+          </cell>
+          <cell r="C28">
+            <v>2.84331797235023</v>
+          </cell>
+          <cell r="D28">
+            <v>3.2248803827751198</v>
+          </cell>
+          <cell r="E28">
+            <v>2.7488151658767701</v>
+          </cell>
+          <cell r="F28">
+            <v>2.4864864864864802</v>
+          </cell>
+          <cell r="G28">
+            <v>2.4864864864864802</v>
+          </cell>
+          <cell r="H28">
+            <v>3.0591133004926099</v>
+          </cell>
+          <cell r="I28">
+            <v>2.65271966527196</v>
+          </cell>
+          <cell r="J28">
+            <v>2.79912663755458</v>
+          </cell>
+          <cell r="K28">
+            <v>3.2274881516587599</v>
+          </cell>
+          <cell r="L28">
+            <v>3.03255813953488</v>
+          </cell>
+          <cell r="M28">
+            <v>2.8523809523809498</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2266,8 +4934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F21840D-1C10-B941-AB9E-718FEF4AB4D7}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
